--- a/data/trans_dic/P2C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.3823728262387381</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05816442497574735</v>
+        <v>0.05816442497574736</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4314522992896171</v>
@@ -685,7 +685,7 @@
         <v>0.4134146894773917</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09071138338613247</v>
+        <v>0.09071138338613245</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3884307277373601</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2897087642291074</v>
+        <v>0.2879622103427777</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3907680687676241</v>
+        <v>0.3946162265941811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3235035578577098</v>
+        <v>0.3271150460625961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0381729320954815</v>
+        <v>0.03743603203838694</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3696364945803383</v>
+        <v>0.3702449300075426</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5018045076809351</v>
+        <v>0.4994268436049304</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3541749732627805</v>
+        <v>0.3613055385978944</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06584073398618712</v>
+        <v>0.06801992878874998</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3422389900967894</v>
+        <v>0.3455491171892864</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4551056010477225</v>
+        <v>0.4616092067742225</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3606192918609067</v>
+        <v>0.356942874499245</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05902711350266787</v>
+        <v>0.05805984660373578</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.405542661636559</v>
+        <v>0.4048887947859614</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5104285154259647</v>
+        <v>0.511688322594243</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4461634541164971</v>
+        <v>0.4431200530467241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08697211365503532</v>
+        <v>0.08497169305315493</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4912662461532322</v>
+        <v>0.4922571795575427</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6245678019969476</v>
+        <v>0.6166172929658863</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4696368983998584</v>
+        <v>0.4787715193601391</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1171835086691588</v>
+        <v>0.1178613242307678</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4311726528531293</v>
+        <v>0.4294130950785142</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5477622116042326</v>
+        <v>0.5570058713809167</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4439829929908873</v>
+        <v>0.4383531903640897</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09220192405926537</v>
+        <v>0.09455596446158901</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1945616935250503</v>
+        <v>0.1955339378492941</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4039645100679057</v>
+        <v>0.4041582020265836</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2278276056927323</v>
+        <v>0.2278563553426558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09006631981054386</v>
+        <v>0.08476645355608023</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2657913150488443</v>
+        <v>0.2707817898625292</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4597922672779438</v>
+        <v>0.457250803028361</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2995747734441317</v>
+        <v>0.2996877001377779</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1783348041772277</v>
+        <v>0.1766797013255981</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2400143008143496</v>
+        <v>0.24427800739443</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4476180661884481</v>
+        <v>0.4469269769551741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2762100002873776</v>
+        <v>0.2753843956827448</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1417983797932186</v>
+        <v>0.1394110619899108</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2721271795427735</v>
+        <v>0.2736085375378647</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4965833128319644</v>
+        <v>0.4968507499460794</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3090262183597226</v>
+        <v>0.3095001043814323</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1535406095689517</v>
+        <v>0.1523073436636954</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3522665797492219</v>
+        <v>0.3523160830645444</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5483492006559252</v>
+        <v>0.5478981514518483</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3858941789856051</v>
+        <v>0.3838752915990853</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.241068441470467</v>
+        <v>0.2414126785669458</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2992362642686762</v>
+        <v>0.2990585004551574</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.50862423652896</v>
+        <v>0.5117599219011051</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3354716925708691</v>
+        <v>0.3341900234775517</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1881449613424165</v>
+        <v>0.1879531010345977</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2880751936593239</v>
+        <v>0.2906005257776475</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3968554388945491</v>
+        <v>0.3913768112921844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2188896873520026</v>
+        <v>0.2205951357568565</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09375116638317869</v>
+        <v>0.09025562736775898</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.308339335270585</v>
+        <v>0.3039007409419559</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4579378529708817</v>
+        <v>0.4537444465230721</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2560058072581458</v>
+        <v>0.2557291954392727</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.101638528040447</v>
+        <v>0.1033608020274772</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3141131761050098</v>
+        <v>0.3138505034044837</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4408373034310548</v>
+        <v>0.4398458822688248</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2538182426186328</v>
+        <v>0.2518409412320029</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.10354872276467</v>
+        <v>0.1045165324549222</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3982716664344653</v>
+        <v>0.3993654367952224</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5040691863877843</v>
+        <v>0.5002666026642556</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3109630308916684</v>
+        <v>0.3147654648951735</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1654175937013325</v>
+        <v>0.1611569835397833</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4086150005652049</v>
+        <v>0.4053443482283486</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5708378501943067</v>
+        <v>0.5700568102944857</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3533352700231842</v>
+        <v>0.3537236059225654</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1607952995446646</v>
+        <v>0.1641613673882397</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3891811759918813</v>
+        <v>0.3866847776578677</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5176999424532599</v>
+        <v>0.5194282859799649</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3185135561629567</v>
+        <v>0.3196481220608421</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1495902555208792</v>
+        <v>0.1526697376464047</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2464292493738699</v>
+        <v>0.245902724981911</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4444716260956889</v>
+        <v>0.4445219097253761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2522012113693993</v>
+        <v>0.2542438222781704</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1173520230994111</v>
+        <v>0.1188511842912215</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.334739587244707</v>
+        <v>0.3363365219988009</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5058069226477803</v>
+        <v>0.5047358654869305</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3485168324483796</v>
+        <v>0.3473358081649653</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1390416774651758</v>
+        <v>0.1395565454560418</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3032129236889136</v>
+        <v>0.3046261028902781</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4925246951188439</v>
+        <v>0.4896566029416868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3160810725131859</v>
+        <v>0.3161758348850808</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1403390346009043</v>
+        <v>0.1405995111184927</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3418179388498548</v>
+        <v>0.3396490773910663</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5522994070210415</v>
+        <v>0.5512616860234715</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3493612632432166</v>
+        <v>0.3513936406957336</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2189120626740836</v>
+        <v>0.218818183407205</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4345502694384047</v>
+        <v>0.4316960511873518</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6047286175049711</v>
+        <v>0.6067098517788951</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4498016507141923</v>
+        <v>0.446588356341221</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2061422706744991</v>
+        <v>0.2050577700444533</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.373354004804255</v>
+        <v>0.3726819058784375</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5692099305172769</v>
+        <v>0.5696248026957497</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3852961194109191</v>
+        <v>0.3874044288631431</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2021858527333511</v>
+        <v>0.2003280261973608</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.176925211964778</v>
+        <v>0.1758241832890085</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3988310512407631</v>
+        <v>0.4034315489692257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3617329097919608</v>
+        <v>0.360035243164183</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07699950075145073</v>
+        <v>0.07764774929361415</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2444257625100131</v>
+        <v>0.2451761691581485</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4933126823332841</v>
+        <v>0.4908796354065986</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4042085161165532</v>
+        <v>0.4030073859482176</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0901217357357413</v>
+        <v>0.09146665305081464</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2317162784116366</v>
+        <v>0.2262041144399983</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4736159530183995</v>
+        <v>0.4708121740733927</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4027120140037079</v>
+        <v>0.4022230495771868</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09134222255621513</v>
+        <v>0.09288998143153154</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2993607141309101</v>
+        <v>0.2931094606576957</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5478438444519694</v>
+        <v>0.5449948102357566</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4900209868110429</v>
+        <v>0.5000346035172344</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1599272100277047</v>
+        <v>0.1586466841200216</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3700476198870272</v>
+        <v>0.3726203076123028</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6302187896477042</v>
+        <v>0.6345053235397587</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5422856533705673</v>
+        <v>0.5348282061801508</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1527495688087423</v>
+        <v>0.1540759281895646</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3163004830626225</v>
+        <v>0.3132619369733821</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5698149360895413</v>
+        <v>0.568911210773289</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4989875139990977</v>
+        <v>0.4983354219410853</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1454808781960282</v>
+        <v>0.1460541424571931</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2913063306493143</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1828529669898641</v>
+        <v>0.1828529669898642</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2944098047696511</v>
@@ -1365,7 +1365,7 @@
         <v>0.3312867336484408</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2371512236436441</v>
+        <v>0.237151223643644</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3224957739022863</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2954442834956736</v>
+        <v>0.2961119463134467</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3873206285607635</v>
+        <v>0.3835500695992552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2405283156090022</v>
+        <v>0.2353151887038878</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1484604919973853</v>
+        <v>0.1440072972543032</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2455121401481772</v>
+        <v>0.2432341603475367</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4471791514405697</v>
+        <v>0.454316944906518</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2763339779754584</v>
+        <v>0.2722378640635681</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1997726337328641</v>
+        <v>0.2014155687438923</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2861372171694218</v>
+        <v>0.2826586408502444</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.438808647837663</v>
+        <v>0.4407143412697971</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2714432402230891</v>
+        <v>0.2731546892192639</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1842446964711217</v>
+        <v>0.1811567058392414</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4152671711639616</v>
+        <v>0.4104676733709735</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5139390868987372</v>
+        <v>0.5141063038823396</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3492152390269482</v>
+        <v>0.349880570969278</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2335389858672021</v>
+        <v>0.2301563019370524</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3558454251219516</v>
+        <v>0.3510546929578955</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5722253079617149</v>
+        <v>0.5750070713866654</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.391719182252146</v>
+        <v>0.3939569077739109</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2812880096364607</v>
+        <v>0.2860626587958825</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3682177381877517</v>
+        <v>0.3612182839601495</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.525483180535098</v>
+        <v>0.5260484381879736</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3535901949201293</v>
+        <v>0.3537067704034064</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2409372134575574</v>
+        <v>0.2379663055581787</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2520264736210782</v>
+        <v>0.2516422719957323</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.399065774257278</v>
+        <v>0.4010747698408176</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.229734836205447</v>
+        <v>0.2284691798502198</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04087512371314537</v>
+        <v>0.04051279538411749</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3555678883470504</v>
+        <v>0.3522059306893414</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4459877314104854</v>
+        <v>0.445748387669208</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3263377297721429</v>
+        <v>0.3259732361233259</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06546276935797318</v>
+        <v>0.0654585470331419</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3174842238242003</v>
+        <v>0.3181508258654661</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4363202611375957</v>
+        <v>0.4388805244578345</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2915678627003974</v>
+        <v>0.2885360577706128</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05750984613142317</v>
+        <v>0.05788819055250859</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.32740023047405</v>
+        <v>0.3303760580398458</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4805352194126396</v>
+        <v>0.4819891212918126</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3015588793363945</v>
+        <v>0.3006791673261356</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07939906719378101</v>
+        <v>0.07962161855166811</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4351376890060053</v>
+        <v>0.4311714321838828</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5245680652304532</v>
+        <v>0.5212628778752013</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4034096789126902</v>
+        <v>0.4044745003002924</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1003220179722393</v>
+        <v>0.1019541513027749</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3690377608235636</v>
+        <v>0.368997451362829</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4941725723898449</v>
+        <v>0.4944432310652133</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3422570160722384</v>
+        <v>0.3413432843323405</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08586164896424199</v>
+        <v>0.08370658271212605</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.4537263568996078</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3143184610650337</v>
+        <v>0.3143184610650336</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2985959865581019</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2544037971727317</v>
+        <v>0.2537168263202044</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3825840741692089</v>
+        <v>0.3787517609292555</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3263623518368066</v>
+        <v>0.3211696179479286</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1978613758812383</v>
+        <v>0.1987372703781332</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2780700464202994</v>
+        <v>0.2758390068924449</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.4704489914561667</v>
+        <v>0.4668107523860656</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4209500936315567</v>
+        <v>0.4190422910644717</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2866293401125963</v>
+        <v>0.2872606613392407</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2756232352654911</v>
+        <v>0.2741391611768209</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4353499646670225</v>
+        <v>0.4361421142708907</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.381376097891185</v>
+        <v>0.3838514884071407</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2525870527193699</v>
+        <v>0.2528517533216585</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3206313870359341</v>
+        <v>0.3214427240765246</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4537136812312778</v>
+        <v>0.4517969163200783</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3937646618354064</v>
+        <v>0.3923341264392033</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2607068090363402</v>
+        <v>0.2614601399405491</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3428360742552789</v>
+        <v>0.3437381962804125</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.5442650491360397</v>
+        <v>0.543218693492967</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4884561952400525</v>
+        <v>0.4908183496275191</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3455924073073764</v>
+        <v>0.341631186690496</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3248373276059187</v>
+        <v>0.3221347358080995</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4874675711524284</v>
+        <v>0.4862682185537174</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4334270801196503</v>
+        <v>0.4332064117450156</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2952864445491315</v>
+        <v>0.295226414910451</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.3875265367147412</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.180295013380705</v>
+        <v>0.1802950133807049</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.3188761714903631</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2761184462465214</v>
+        <v>0.2761808669706685</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4306056819988066</v>
+        <v>0.4298303422497715</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2978175280825964</v>
+        <v>0.2972640182538714</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1232757738372352</v>
+        <v>0.1226979638777153</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.328906436686189</v>
+        <v>0.3290128291786754</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.4990858184093719</v>
+        <v>0.4971624396607692</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3715240385025101</v>
+        <v>0.3711729542213033</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1687488209205183</v>
+        <v>0.1686600352278033</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3061989827960247</v>
+        <v>0.3075943485142042</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.4704590687935061</v>
+        <v>0.470360250276911</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.339647687970836</v>
+        <v>0.3396100978662916</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1509471328248174</v>
+        <v>0.1505712127971679</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3067442804999569</v>
+        <v>0.3092231833609704</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4650094289289327</v>
+        <v>0.4643886383334656</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3292264321397705</v>
+        <v>0.3277334337782356</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1479414703008629</v>
+        <v>0.1484224299347068</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3616037976298744</v>
+        <v>0.3626918066934735</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5336722321268663</v>
+        <v>0.5333077586825593</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4055332440909303</v>
+        <v>0.4054509934336432</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1916966172411666</v>
+        <v>0.1917213703148506</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3291655942423995</v>
+        <v>0.3307077488160163</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.4954792255067716</v>
+        <v>0.494765130717205</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3625373781421774</v>
+        <v>0.3630531920100895</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1679826492599588</v>
+        <v>0.1674285552091248</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>79093</v>
+        <v>78617</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>115174</v>
+        <v>116308</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>95033</v>
+        <v>96094</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12171</v>
+        <v>11936</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>96415</v>
+        <v>96574</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>144141</v>
+        <v>143458</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>102251</v>
+        <v>104310</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>20810</v>
+        <v>21498</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>182704</v>
+        <v>184471</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>264864</v>
+        <v>268649</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>210048</v>
+        <v>207906</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>37477</v>
+        <v>36863</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>110717</v>
+        <v>110539</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>150443</v>
+        <v>150814</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>131065</v>
+        <v>130171</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27731</v>
+        <v>27093</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>128141</v>
+        <v>128399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>179404</v>
+        <v>177120</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>135586</v>
+        <v>138223</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>37037</v>
+        <v>37251</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>230181</v>
+        <v>229241</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>318788</v>
+        <v>324168</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>258604</v>
+        <v>255325</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>58540</v>
+        <v>60034</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>95934</v>
+        <v>96413</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>204215</v>
+        <v>204313</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>114500</v>
+        <v>114515</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>47793</v>
+        <v>44981</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>133945</v>
+        <v>136460</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>240823</v>
+        <v>239492</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>156703</v>
+        <v>156762</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>97459</v>
+        <v>96554</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>239300</v>
+        <v>243551</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>460730</v>
+        <v>460018</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>283297</v>
+        <v>282450</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>152737</v>
+        <v>150165</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>134179</v>
+        <v>134910</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>251036</v>
+        <v>251171</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>155309</v>
+        <v>155547</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>81476</v>
+        <v>80821</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>177524</v>
+        <v>177549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>287206</v>
+        <v>286970</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>201855</v>
+        <v>200799</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>131742</v>
+        <v>131931</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>298346</v>
+        <v>298169</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>523523</v>
+        <v>526750</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>344080</v>
+        <v>342765</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>202659</v>
+        <v>202452</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>91852</v>
+        <v>92657</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>128599</v>
+        <v>126824</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>69731</v>
+        <v>70274</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29625</v>
+        <v>28520</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>103421</v>
+        <v>101932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>156166</v>
+        <v>154736</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>86097</v>
+        <v>86004</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>36222</v>
+        <v>36836</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>205511</v>
+        <v>205339</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>293186</v>
+        <v>292527</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>166219</v>
+        <v>164924</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>69624</v>
+        <v>70274</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>126987</v>
+        <v>127336</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>163342</v>
+        <v>162109</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>99062</v>
+        <v>100273</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52271</v>
+        <v>50924</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>137054</v>
+        <v>135957</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>194667</v>
+        <v>194401</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>118830</v>
+        <v>118960</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57304</v>
+        <v>58504</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>254625</v>
+        <v>252992</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>344305</v>
+        <v>345454</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>208586</v>
+        <v>209329</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>100581</v>
+        <v>102651</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>88387</v>
+        <v>88198</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>166224</v>
+        <v>166243</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>93305</v>
+        <v>94061</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>43789</v>
+        <v>44349</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>124341</v>
+        <v>124934</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>196734</v>
+        <v>196318</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>134975</v>
+        <v>134517</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>58670</v>
+        <v>58887</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>221384</v>
+        <v>222416</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>375763</v>
+        <v>373575</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>239351</v>
+        <v>239423</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>111585</v>
+        <v>111792</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>122600</v>
+        <v>121822</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>206550</v>
+        <v>206162</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>129251</v>
+        <v>130003</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>81686</v>
+        <v>81651</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>161416</v>
+        <v>160356</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>235210</v>
+        <v>235980</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>174201</v>
+        <v>172956</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>86984</v>
+        <v>86526</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>272596</v>
+        <v>272105</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>434269</v>
+        <v>434586</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>291764</v>
+        <v>293361</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>160759</v>
+        <v>159282</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>35970</v>
+        <v>35746</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>84799</v>
+        <v>85777</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>76406</v>
+        <v>76047</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>15836</v>
+        <v>15969</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>50759</v>
+        <v>50915</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>108327</v>
+        <v>107793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>88355</v>
+        <v>88092</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20630</v>
+        <v>20938</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>95230</v>
+        <v>92964</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>204701</v>
+        <v>203489</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>173089</v>
+        <v>172879</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>39696</v>
+        <v>40368</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60862</v>
+        <v>59591</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>116481</v>
+        <v>115876</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>103503</v>
+        <v>105618</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>32891</v>
+        <v>32628</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>76847</v>
+        <v>77381</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>138390</v>
+        <v>139332</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>118537</v>
+        <v>116906</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>34967</v>
+        <v>35271</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>129992</v>
+        <v>128743</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>246279</v>
+        <v>245889</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>214469</v>
+        <v>214189</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>63223</v>
+        <v>63473</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>80010</v>
+        <v>80190</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>106118</v>
+        <v>105085</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>63289</v>
+        <v>61917</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>40189</v>
+        <v>38984</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>68288</v>
+        <v>67654</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>125224</v>
+        <v>127223</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>75471</v>
+        <v>74352</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>52690</v>
+        <v>53123</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>157076</v>
+        <v>155167</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>243105</v>
+        <v>244161</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>145558</v>
+        <v>146476</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>98471</v>
+        <v>96820</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>112459</v>
+        <v>111159</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>140810</v>
+        <v>140855</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>91887</v>
+        <v>92062</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>63221</v>
+        <v>62305</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>98976</v>
+        <v>97644</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>160241</v>
+        <v>161020</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>106984</v>
+        <v>107596</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>74190</v>
+        <v>75449</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>202135</v>
+        <v>198293</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>291124</v>
+        <v>291437</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>189608</v>
+        <v>189671</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>128771</v>
+        <v>127183</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>155003</v>
+        <v>154767</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>264496</v>
+        <v>265828</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>150834</v>
+        <v>150003</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>29417</v>
+        <v>29157</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>226930</v>
+        <v>224785</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>309450</v>
+        <v>309284</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>225595</v>
+        <v>225343</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>50541</v>
+        <v>50538</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>397886</v>
+        <v>398721</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>591930</v>
+        <v>595403</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>392990</v>
+        <v>388904</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>85790</v>
+        <v>86354</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>201360</v>
+        <v>203190</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>318493</v>
+        <v>319457</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>197991</v>
+        <v>197413</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>57142</v>
+        <v>57303</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>277713</v>
+        <v>275182</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>363973</v>
+        <v>361680</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>278875</v>
+        <v>279611</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>77454</v>
+        <v>78714</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>462495</v>
+        <v>462445</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>670415</v>
+        <v>670782</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>461312</v>
+        <v>460080</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>128084</v>
+        <v>124869</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>189224</v>
+        <v>188713</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>298070</v>
+        <v>295085</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>254100</v>
+        <v>250057</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>157908</v>
+        <v>158607</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>217871</v>
+        <v>216123</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>387581</v>
+        <v>384583</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>347775</v>
+        <v>346199</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>238284</v>
+        <v>238809</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>420961</v>
+        <v>418694</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>697845</v>
+        <v>699114</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>612013</v>
+        <v>615986</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>411566</v>
+        <v>411997</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>238484</v>
+        <v>239087</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>353487</v>
+        <v>351994</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>306578</v>
+        <v>305465</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>208063</v>
+        <v>208664</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>268616</v>
+        <v>269323</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>448394</v>
+        <v>447532</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>403546</v>
+        <v>405498</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>287302</v>
+        <v>284009</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>496126</v>
+        <v>491998</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>781387</v>
+        <v>779464</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>695542</v>
+        <v>695188</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>481141</v>
+        <v>481043</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>904714</v>
+        <v>904918</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1475591</v>
+        <v>1472934</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1010897</v>
+        <v>1009018</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>435504</v>
+        <v>433463</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1111440</v>
+        <v>1111799</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1775902</v>
+        <v>1769058</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1316883</v>
+        <v>1315638</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>630607</v>
+        <v>630275</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2037981</v>
+        <v>2047268</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>3286198</v>
+        <v>3285508</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2356779</v>
+        <v>2356518</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1097343</v>
+        <v>1094610</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1005061</v>
+        <v>1013183</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1593485</v>
+        <v>1591357</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1117510</v>
+        <v>1112442</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>522642</v>
+        <v>524341</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1221930</v>
+        <v>1225607</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1898971</v>
+        <v>1897674</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1437430</v>
+        <v>1437138</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>716361</v>
+        <v>716454</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2190841</v>
+        <v>2201105</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>3460966</v>
+        <v>3455978</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2515608</v>
+        <v>2519187</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1221186</v>
+        <v>1217158</v>
       </c>
     </row>
     <row r="40">
